--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value239.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value239.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3125382152254799</v>
+        <v>1.168994188308716</v>
       </c>
       <c r="B1">
-        <v>0.3280327377614619</v>
+        <v>2.139285326004028</v>
       </c>
       <c r="C1">
-        <v>0.367413042556048</v>
+        <v>3.518226146697998</v>
       </c>
       <c r="D1">
-        <v>0.5661862604054336</v>
+        <v>3.442429780960083</v>
       </c>
       <c r="E1">
-        <v>1.563643912449123</v>
+        <v>1.169265985488892</v>
       </c>
     </row>
   </sheetData>
